--- a/xl_data/otero-bfiaf-CENSORED.xlsx
+++ b/xl_data/otero-bfiaf-CENSORED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\damon\COFC\bad-author\xl_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4833E21-7B32-43E9-945F-4339BE9CAE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EEBFBD-66A6-4625-ADB9-98F5395E9A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phpmyadmin" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1298,7 +1298,7 @@
         <v>2.3219280948873622</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="25" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="10">
         <f>SUM(B2:B14)</f>
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:O16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1517,6 +1517,7 @@
     <col min="2" max="2" width="7.90625" customWidth="1"/>
     <col min="4" max="4" width="9.08984375" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" customWidth="1"/>
+    <col min="15" max="15" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2236,7 +2237,7 @@
         <v>11.11196210668224</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="10">
         <f>SUM(B2:B15)</f>
@@ -2463,8 +2464,8 @@
   </sheetPr>
   <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A36" sqref="A1:AS36"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7300,83 +7301,83 @@
         <v>11.720671786825557</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:45" ht="37" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="10">
-        <f>SUM(B23:B35)</f>
-        <v>0</v>
+        <f>SUM(B2:B35)</f>
+        <v>32.883674585560556</v>
       </c>
       <c r="C36" s="10">
-        <f t="shared" ref="C36:AR36" si="1">SUM(C23:C35)</f>
-        <v>0</v>
+        <f t="shared" ref="C36:AR36" si="1">SUM(C2:C35)</f>
+        <v>4.7548875021634691</v>
       </c>
       <c r="D36" s="10">
         <f t="shared" si="1"/>
-        <v>14.068905956085185</v>
+        <v>66.806146960012626</v>
       </c>
       <c r="E36" s="10">
         <f t="shared" si="1"/>
-        <v>82.044702507778894</v>
+        <v>106.48767418208662</v>
       </c>
       <c r="F36" s="10">
         <f t="shared" si="1"/>
-        <v>4.8137811912170374</v>
+        <v>10.65998386012645</v>
       </c>
       <c r="G36" s="10">
         <f t="shared" si="1"/>
-        <v>6.7206717868255561</v>
+        <v>78.178469338230343</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.568668693380507</v>
       </c>
       <c r="I36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.253166867652578</v>
       </c>
       <c r="J36" s="10">
         <f t="shared" si="1"/>
-        <v>3.8137811912170374</v>
+        <v>9.8905967882678691</v>
       </c>
       <c r="K36" s="10">
         <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
+        <v>18.835858127899954</v>
       </c>
       <c r="L36" s="10">
         <f t="shared" si="1"/>
-        <v>17.840087265589304</v>
+        <v>53.774713932316708</v>
       </c>
       <c r="M36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.032421477692377</v>
       </c>
       <c r="N36" s="10">
         <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
+        <v>3.8137811912170374</v>
       </c>
       <c r="O36" s="10">
         <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
+        <v>39.422750839558972</v>
       </c>
       <c r="P36" s="10">
         <f t="shared" si="1"/>
-        <v>5.4413435736511104</v>
+        <v>7.7632716685384722</v>
       </c>
       <c r="Q36" s="10">
         <f t="shared" si="1"/>
-        <v>11.627562382434077</v>
+        <v>24.583002126086701</v>
       </c>
       <c r="R36" s="10">
         <f t="shared" si="1"/>
-        <v>2.9068905956085191</v>
+        <v>13.24494636084761</v>
       </c>
       <c r="S36" s="10">
         <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
+        <v>5.2612401681882579</v>
       </c>
       <c r="T36" s="10">
         <f t="shared" si="1"/>
-        <v>3.9068905956085191</v>
+        <v>7.3987436919381944</v>
       </c>
       <c r="U36" s="10">
         <f t="shared" si="1"/>
@@ -7388,11 +7389,11 @@
       </c>
       <c r="W36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9068905956085189</v>
       </c>
       <c r="X36" s="10">
         <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
+        <v>2.9393120733008953</v>
       </c>
       <c r="Y36" s="10">
         <f t="shared" si="1"/>
@@ -7400,15 +7401,15 @@
       </c>
       <c r="Z36" s="10">
         <f t="shared" si="1"/>
-        <v>2.9068905956085191</v>
+        <v>5.5913887698805897</v>
       </c>
       <c r="AA36" s="10">
         <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
+        <v>11.601090171072883</v>
       </c>
       <c r="AB36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.4918530963296752</v>
       </c>
       <c r="AC36" s="10">
         <f t="shared" si="1"/>
@@ -7416,11 +7417,11 @@
       </c>
       <c r="AD36" s="10">
         <f t="shared" si="1"/>
-        <v>3.8137811912170374</v>
+        <v>5.720671786825557</v>
       </c>
       <c r="AE36" s="10">
         <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
+        <v>6.8462026689094149</v>
       </c>
       <c r="AF36" s="10">
         <f t="shared" si="1"/>
@@ -7428,31 +7429,31 @@
       </c>
       <c r="AG36" s="10">
         <f t="shared" si="1"/>
-        <v>26.653868456806347</v>
+        <v>253.88607621637183</v>
       </c>
       <c r="AH36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.684498174272071</v>
       </c>
       <c r="AI36" s="10">
         <f t="shared" si="1"/>
-        <v>12.627562382434075</v>
+        <v>14.659983860126452</v>
       </c>
       <c r="AJ36" s="10">
         <f t="shared" si="1"/>
-        <v>3.9068905956085191</v>
+        <v>29.924646366616862</v>
       </c>
       <c r="AK36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.169925001442313</v>
       </c>
       <c r="AL36" s="10">
         <f t="shared" si="1"/>
-        <v>2.9068905956085191</v>
+        <v>4.8137811912170383</v>
       </c>
       <c r="AM36" s="10">
         <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
+        <v>2.9393120733008953</v>
       </c>
       <c r="AN36" s="10">
         <f t="shared" si="1"/>
@@ -7460,19 +7461,19 @@
       </c>
       <c r="AO36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9068905956085189</v>
       </c>
       <c r="AP36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9068905956085189</v>
       </c>
       <c r="AQ36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5849625007211561</v>
       </c>
       <c r="AR36" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5849625007211561</v>
       </c>
       <c r="AS36" s="6"/>
     </row>

--- a/xl_data/otero-bfiaf-CENSORED.xlsx
+++ b/xl_data/otero-bfiaf-CENSORED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\damon\COFC\bad-author\xl_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EEBFBD-66A6-4625-ADB9-98F5395E9A2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28DD9AA-B5AC-4219-949D-4FC6160C74FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phpmyadmin" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -802,31 +802,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>4.6438561897747244</v>
       </c>
       <c r="D2" s="4">
-        <v>4.6438561897747244</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>1.321928094887362</v>
       </c>
       <c r="D3" s="4">
         <v>1.321928094887362</v>
@@ -883,16 +883,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>1.321928094887362</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
       <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>1.321928094887362</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
+        <v>0.51457317282975823</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.5437195184892749</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.0874390369785489</v>
+      </c>
+      <c r="E4" s="4">
         <v>28.816097678466459</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.5437195184892749</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>0.51457317282975823</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.0874390369785489</v>
       </c>
       <c r="G4" s="4">
         <v>0.51457317282975823</v>
@@ -928,14 +928,14 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>0.51457317282975823</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="9">
         <f t="shared" si="0"/>
-        <v>34.990975752423559</v>
+        <v>34.990975752423552</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="26" customHeight="1">
@@ -949,25 +949,25 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>7.931568569324174</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>7.931568569324174</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
       </c>
       <c r="H5" s="4">
+        <v>1.321928094887362</v>
+      </c>
+      <c r="I5" s="4">
         <v>2.6438561897747248</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
       <c r="J5" s="4">
-        <v>1.321928094887362</v>
+        <v>0</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="0"/>
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>4.6438561897747244</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>4.6438561897747244</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1021,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>4.6438561897747244</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>4.6438561897747244</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>2.3219280948873622</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>2.3219280948873622</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>2.3219280948873622</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>2.3219280948873622</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1129,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>2.3219280948873622</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="4">
-        <v>2.3219280948873622</v>
+        <v>0</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -1162,28 +1162,28 @@
         <v>0</v>
       </c>
       <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
         <v>2.3219280948873622</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="0"/>
@@ -1195,16 +1195,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <v>4.6438561897747244</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <v>2.3219280948873622</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -1267,16 +1267,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <v>2.3219280948873622</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -1302,45 +1302,45 @@
       <c r="A15" s="2"/>
       <c r="B15" s="10">
         <f>SUM(B2:B14)</f>
+        <v>0.51457317282975823</v>
+      </c>
+      <c r="C15" s="10">
+        <f>SUM(C2:C14)</f>
+        <v>7.509503803151361</v>
+      </c>
+      <c r="D15" s="10">
+        <f>SUM(D2:D14)</f>
+        <v>28.594432365401616</v>
+      </c>
+      <c r="E15" s="10">
+        <f>SUM(E2:E14)</f>
         <v>38.10381005801591</v>
       </c>
-      <c r="C15" s="10">
-        <f t="shared" ref="C15:J15" si="1">SUM(C2:C14)</f>
+      <c r="F15" s="10">
+        <f>SUM(F2:F14)</f>
+        <v>0.51457317282975823</v>
+      </c>
+      <c r="G15" s="10">
+        <f>SUM(G2:G14)</f>
+        <v>1.8365012677171202</v>
+      </c>
+      <c r="H15" s="10">
+        <f>SUM(H2:H14)</f>
+        <v>1.321928094887362</v>
+      </c>
+      <c r="I15" s="10">
+        <f>SUM(I2:I14)</f>
+        <v>2.6438561897747248</v>
+      </c>
+      <c r="J15" s="10">
+        <f>SUM(J2:J14)</f>
         <v>2.3219280948873622</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="1"/>
-        <v>7.509503803151361</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="1"/>
-        <v>0.51457317282975823</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="1"/>
-        <v>28.594432365401616</v>
-      </c>
-      <c r="G15" s="10">
-        <f t="shared" si="1"/>
-        <v>0.51457317282975823</v>
-      </c>
-      <c r="H15" s="10">
-        <f t="shared" si="1"/>
-        <v>2.6438561897747248</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="1"/>
-        <v>1.8365012677171202</v>
-      </c>
-      <c r="J15" s="10">
-        <f t="shared" si="1"/>
-        <v>1.321928094887362</v>
       </c>
       <c r="K15" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:J15">
+    <sortCondition ref="B1:J1"/>
   </sortState>
   <conditionalFormatting sqref="B2:J14">
     <cfRule type="colorScale" priority="12">
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1525,43 +1525,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="O1" s="2"/>
     </row>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>2.8073549220576042</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="4">
-        <v>2.8073549220576042</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>2.8073549220576042</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>2.8073549220576042</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>1.485426827170242</v>
       </c>
       <c r="C4" s="4">
-        <v>1.485426827170242</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>1.485426827170242</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1687,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
+        <v>4.4562804815107242</v>
       </c>
       <c r="J4" s="4">
-        <v>4.4562804815107242</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <v>0</v>
+        <v>1.485426827170242</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
@@ -1720,34 +1720,34 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>2.2223924213364481</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
       <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>2.2223924213364481</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="4">
-        <v>0</v>
+        <v>2.8073549220576042</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>2.8073549220576042</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1816,34 +1816,34 @@
         <v>0</v>
       </c>
       <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>11.22941968823042</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
@@ -1876,25 +1876,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <v>2.8073549220576042</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="0"/>
@@ -1906,11 +1906,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
         <v>2.2223924213364481</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>2.2223924213364481</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>2.2223924213364481</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -1954,43 +1954,43 @@
         <v>14</v>
       </c>
       <c r="B10" s="4">
+        <v>5.3396950988726593</v>
+      </c>
+      <c r="C10" s="4">
         <v>3.8834146173619342</v>
       </c>
-      <c r="C10" s="4">
-        <v>3.3979877901916922</v>
-      </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>0.48542682717024171</v>
       </c>
       <c r="E10" s="4">
         <v>0.48542682717024171</v>
       </c>
       <c r="F10" s="4">
-        <v>5.3396950988726593</v>
+        <v>3.3979877901916922</v>
       </c>
       <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.48542682717024171</v>
+      </c>
+      <c r="K10" s="4">
         <v>14.077377987937011</v>
       </c>
-      <c r="H10" s="4">
+      <c r="L10" s="4">
+        <v>0.48542682717024171</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
         <v>3.3979877901916922</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.48542682717024171</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.48542682717024171</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0.48542682717024171</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="0"/>
@@ -2002,47 +2002,47 @@
         <v>4</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>8.9125609630214484</v>
       </c>
       <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>1.485426827170242</v>
       </c>
-      <c r="D11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.9708536543404831</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>1.485426827170242</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>8.9125609630214484</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2.9708536543404831</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="0"/>
-        <v>14.854268271702416</v>
+        <v>14.854268271702415</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="25.5" customHeight="1">
@@ -2056,34 +2056,34 @@
         <v>0</v>
       </c>
       <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
         <v>2.8073549220576042</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
       </c>
       <c r="N12" s="4">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="4">
-        <v>0</v>
+        <v>1.807354922057604</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -2107,22 +2107,22 @@
         <v>0</v>
       </c>
       <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <v>3.6147098441152079</v>
       </c>
-      <c r="F13" s="4">
-        <v>1.807354922057604</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <v>3.6147098441152079</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -2146,11 +2146,11 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
+        <v>4.8895696853457924</v>
+      </c>
+      <c r="C14" s="4">
         <v>1.2223924213364481</v>
       </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
@@ -2158,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>4.8895696853457924</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>1.2223924213364481</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
         <v>1.2223924213364481</v>
@@ -2173,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>1.2223924213364481</v>
       </c>
       <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
         <v>1.2223924213364481</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="0"/>
@@ -2194,40 +2194,40 @@
         <v>15</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>8.8895696853457924</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
         <v>2.2223924213364481</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>8.8895696853457924</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
@@ -2241,61 +2241,61 @@
       <c r="A16" s="2"/>
       <c r="B16" s="10">
         <f>SUM(B2:B15)</f>
+        <v>36.938887025928743</v>
+      </c>
+      <c r="C16" s="10">
+        <f>SUM(C2:C15)</f>
         <v>7.3281994600348295</v>
       </c>
-      <c r="C16" s="10">
-        <f t="shared" ref="C16:N16" si="1">SUM(C2:C15)</f>
+      <c r="D16" s="10">
+        <f>SUM(D2:D15)</f>
+        <v>3.2927817492278457</v>
+      </c>
+      <c r="E16" s="10">
+        <f>SUM(E2:E15)</f>
+        <v>0.48542682717024171</v>
+      </c>
+      <c r="F16" s="10">
+        <f>SUM(F2:F15)</f>
         <v>6.3688414445321762</v>
       </c>
-      <c r="D16" s="10">
-        <f t="shared" si="1"/>
+      <c r="G16" s="10">
+        <f>SUM(G2:G15)</f>
+        <v>3.6147098441152079</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(H2:H15)</f>
+        <v>3.4447848426728962</v>
+      </c>
+      <c r="I16" s="10">
+        <f>SUM(I2:I15)</f>
+        <v>6.6786729028471719</v>
+      </c>
+      <c r="J16" s="10">
+        <f>SUM(J2:J15)</f>
+        <v>4.1001366712854495</v>
+      </c>
+      <c r="K16" s="10">
+        <f>SUM(K2:K15)</f>
+        <v>18.270624063613941</v>
+      </c>
+      <c r="L16" s="10">
+        <f>SUM(L2:L15)</f>
+        <v>0.48542682717024171</v>
+      </c>
+      <c r="M16" s="10">
+        <f>SUM(M2:M15)</f>
         <v>21.452413107301407</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" si="1"/>
-        <v>4.1001366712854495</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" si="1"/>
-        <v>36.938887025928743</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" si="1"/>
-        <v>18.270624063613941</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="1"/>
+      <c r="N16" s="10">
+        <f>SUM(N2:N15)</f>
         <v>7.4277351335857436</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="1"/>
-        <v>3.6147098441152079</v>
-      </c>
-      <c r="J16" s="10">
-        <f t="shared" si="1"/>
-        <v>6.6786729028471719</v>
-      </c>
-      <c r="K16" s="10">
-        <f t="shared" si="1"/>
-        <v>3.2927817492278457</v>
-      </c>
-      <c r="L16" s="10">
-        <f t="shared" si="1"/>
-        <v>3.4447848426728962</v>
-      </c>
-      <c r="M16" s="10">
-        <f t="shared" si="1"/>
-        <v>0.48542682717024171</v>
-      </c>
-      <c r="N16" s="10">
-        <f t="shared" si="1"/>
-        <v>0.48542682717024171</v>
       </c>
       <c r="O16" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N15">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:N16">
+    <sortCondition ref="B1:N1"/>
   </sortState>
   <conditionalFormatting sqref="B2:N15">
     <cfRule type="colorScale" priority="11">
@@ -2464,8 +2464,8 @@
   </sheetPr>
   <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2479,133 +2479,133 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="AJ1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="AS1" s="11"/>
     </row>
@@ -2644,56 +2644,56 @@
         <v>0</v>
       </c>
       <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
         <v>3.4918530963296752</v>
       </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
         <v>3.4918530963296752</v>
       </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>0</v>
-      </c>
       <c r="AC2" s="4">
         <v>0</v>
       </c>
@@ -2707,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
         <v>3.4918530963296752</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>0</v>
       </c>
       <c r="AI2" s="4">
         <v>0</v>
@@ -2767,83 +2767,83 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
         <v>6.9837061926593504</v>
       </c>
-      <c r="H3" s="4">
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
         <v>3.4918530963296752</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4">
+      <c r="AF3" s="4">
         <v>3.4918530963296752</v>
       </c>
-      <c r="AC3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>0</v>
-      </c>
       <c r="AG3" s="4">
         <v>0</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="9">
-        <f t="shared" ref="AS3:AS35" si="0">SUM(B3:AR3)</f>
+        <f>SUM(B3:AR3)</f>
         <v>13.967412385318701</v>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>3.4918530963296752</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -2938,20 +2938,20 @@
         <v>0</v>
       </c>
       <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
         <v>3.4918530963296752</v>
       </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>3.4918530963296752</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
       <c r="W4" s="4">
         <v>0</v>
       </c>
@@ -2983,11 +2983,11 @@
         <v>0</v>
       </c>
       <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
         <v>10.475559288989031</v>
       </c>
-      <c r="AH4" s="4">
-        <v>0</v>
-      </c>
       <c r="AI4" s="4">
         <v>0</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:AR4)</f>
         <v>17.45926548164838</v>
       </c>
     </row>
@@ -3055,89 +3055,89 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>3.169925001442313</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
         <v>6.3398500028846252</v>
       </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4">
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>6.3398500028846252</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4">
         <v>3.169925001442313</v>
       </c>
-      <c r="AB5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>6.3398500028846252</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>3.169925001442313</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="4">
-        <v>0</v>
-      </c>
       <c r="AM5" s="4">
         <v>0</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:AR5)</f>
         <v>19.019550008653876</v>
       </c>
     </row>
@@ -3166,125 +3166,125 @@
         <v>20</v>
       </c>
       <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>15.627562382434069</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>15.627562382434069</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>0</v>
-      </c>
       <c r="AP6" s="4">
         <v>0</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:AR6)</f>
         <v>19.534452978042587</v>
       </c>
     </row>
@@ -3304,37 +3304,37 @@
         <v>2</v>
       </c>
       <c r="B7" s="4">
-        <v>26.944362512259659</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.169925001442313</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>4.7548875021634691</v>
       </c>
-      <c r="D7" s="4">
-        <v>3.169925001442313</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4.7548875021634691</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3.169925001442313</v>
-      </c>
       <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
         <v>1.5849625007211561</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>3.169925001442313</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -3346,17 +3346,17 @@
         <v>1.5849625007211561</v>
       </c>
       <c r="P7" s="4">
-        <v>0</v>
+        <v>1.5849625007211561</v>
       </c>
       <c r="Q7" s="4">
+        <v>4.7548875021634691</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
         <v>1.5849625007211561</v>
       </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
       <c r="T7" s="4">
         <v>0</v>
       </c>
@@ -3379,61 +3379,61 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>3.169925001442313</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>26.944362512259659</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>3.169925001442313</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="4">
         <v>1.5849625007211561</v>
       </c>
-      <c r="AB7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="4">
+      <c r="AM7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>1.5849625007211561</v>
+      </c>
+      <c r="AO7" s="4">
         <v>26.944362512259659</v>
       </c>
-      <c r="AH7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="4">
+      <c r="AP7" s="4">
         <v>1.5849625007211561</v>
       </c>
-      <c r="AK7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ7" s="4">
-        <v>1.5849625007211561</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="4">
-        <v>1.5849625007211561</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:AR7)</f>
         <v>84.003012538221299</v>
       </c>
     </row>
@@ -3442,58 +3442,58 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>2.032421477692377</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>24.38905773230853</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
       <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2.032421477692377</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <v>22.356636254616149</v>
       </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>6.0972644330771324</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
       <c r="R8" s="4">
         <v>0</v>
       </c>
       <c r="S8" s="4">
-        <v>2.032421477692377</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4">
-        <v>2.032421477692377</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="4">
         <v>0</v>
@@ -3529,37 +3529,37 @@
         <v>0</v>
       </c>
       <c r="AE8" s="4">
-        <v>2.032421477692377</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="4">
         <v>0</v>
       </c>
       <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
         <v>18.291793299231401</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>0</v>
       </c>
       <c r="AI8" s="4">
         <v>2.032421477692377</v>
       </c>
       <c r="AJ8" s="4">
+        <v>6.0972644330771324</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4">
         <v>2.032421477692377</v>
       </c>
-      <c r="AK8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>0</v>
-      </c>
       <c r="AM8" s="4">
-        <v>0</v>
+        <v>2.032421477692377</v>
       </c>
       <c r="AN8" s="4">
         <v>0</v>
       </c>
       <c r="AO8" s="4">
-        <v>0</v>
+        <v>2.032421477692377</v>
       </c>
       <c r="AP8" s="4">
         <v>0</v>
@@ -3571,8 +3571,8 @@
         <v>0</v>
       </c>
       <c r="AS8" s="9">
-        <f t="shared" si="0"/>
-        <v>83.329280585387465</v>
+        <f>SUM(B8:AR8)</f>
+        <v>83.329280585387494</v>
       </c>
     </row>
     <row r="9" spans="1:45" s="3" customFormat="1" ht="24.5" customHeight="1">
@@ -3583,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>24.442971674307731</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>24.442971674307731</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -3673,23 +3673,23 @@
         <v>0</v>
       </c>
       <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
         <v>3.4918530963296752</v>
       </c>
-      <c r="AH9" s="4">
-        <v>0</v>
-      </c>
       <c r="AI9" s="4">
         <v>0</v>
       </c>
       <c r="AJ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4">
         <v>3.4918530963296752</v>
       </c>
-      <c r="AK9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>0</v>
-      </c>
       <c r="AM9" s="4">
         <v>0</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:AR9)</f>
         <v>31.426677866967079</v>
       </c>
     </row>
@@ -3733,38 +3733,38 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>3.9068905956085191</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
         <v>11.720671786825561</v>
       </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
       <c r="R10" s="4">
         <v>0</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4">
-        <v>3.9068905956085191</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="4">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:AR10)</f>
         <v>15.62756238243408</v>
       </c>
     </row>
@@ -3862,77 +3862,77 @@
         <v>0</v>
       </c>
       <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>2.3219280948873622</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
       <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
         <v>6.965784284662087</v>
       </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>4.6438561897747244</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
         <v>2.3219280948873622</v>
       </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>2.3219280948873622</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>2.3219280948873622</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0</v>
-      </c>
-      <c r="W11" s="4">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>0</v>
-      </c>
       <c r="AB11" s="4">
         <v>0</v>
       </c>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="AG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
         <v>20.897352853986259</v>
-      </c>
-      <c r="AH11" s="4">
-        <v>0</v>
       </c>
       <c r="AI11" s="4">
         <v>0</v>
@@ -3964,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="AL11" s="4">
-        <v>0</v>
+        <v>2.3219280948873622</v>
       </c>
       <c r="AM11" s="4">
-        <v>0</v>
+        <v>2.3219280948873622</v>
       </c>
       <c r="AN11" s="4">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="4">
-        <v>0</v>
+        <v>4.6438561897747244</v>
       </c>
       <c r="AQ11" s="4">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:AR11)</f>
         <v>44.11663380285988</v>
       </c>
     </row>
@@ -4015,107 +4015,107 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>3.169925001442313</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>50.718800023077002</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>9.5097750043269382</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="4">
         <v>6.3398500028846252</v>
       </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>50.718800023077002</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="4">
-        <v>9.5097750043269382</v>
-      </c>
-      <c r="AK12" s="4">
-        <v>3.169925001442313</v>
-      </c>
-      <c r="AL12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ12" s="4">
         <v>0</v>
       </c>
@@ -4123,8 +4123,8 @@
         <v>0</v>
       </c>
       <c r="AS12" s="9">
-        <f t="shared" si="0"/>
-        <v>69.738350031730874</v>
+        <f>SUM(B12:AR12)</f>
+        <v>69.738350031730889</v>
       </c>
     </row>
     <row r="13" spans="1:45" s="3" customFormat="1" ht="24.5" customHeight="1">
@@ -4225,11 +4225,11 @@
         <v>0</v>
       </c>
       <c r="AG13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4">
         <v>8.9837061926593496</v>
       </c>
-      <c r="AH13" s="4">
-        <v>0</v>
-      </c>
       <c r="AI13" s="4">
         <v>0</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:AR13)</f>
         <v>8.9837061926593496</v>
       </c>
     </row>
@@ -4288,86 +4288,86 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4">
-        <v>0</v>
-      </c>
-      <c r="W14" s="4">
-        <v>0</v>
-      </c>
-      <c r="X14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="4">
-        <v>0</v>
-      </c>
       <c r="AG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4">
         <v>15.627562382434069</v>
       </c>
-      <c r="AH14" s="4">
-        <v>0</v>
-      </c>
       <c r="AI14" s="4">
         <v>0</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:AR14)</f>
         <v>19.534452978042587</v>
       </c>
     </row>
@@ -4501,23 +4501,23 @@
         <v>0</v>
       </c>
       <c r="AG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="AH15" s="4">
-        <v>0</v>
-      </c>
       <c r="AI15" s="4">
         <v>0</v>
       </c>
       <c r="AJ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="AK15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="4">
-        <v>0</v>
-      </c>
       <c r="AM15" s="4">
         <v>0</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:AR15)</f>
         <v>7.8137811912170383</v>
       </c>
     </row>
@@ -4633,20 +4633,20 @@
         <v>0</v>
       </c>
       <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="AF16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="4">
+      <c r="AI16" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="AH16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="4">
-        <v>0</v>
-      </c>
       <c r="AJ16" s="4">
         <v>0</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:AR16)</f>
         <v>7.8137811912170383</v>
       </c>
     </row>
@@ -4699,71 +4699,71 @@
         <v>0</v>
       </c>
       <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
         <v>3.169925001442313</v>
       </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
         <v>3.169925001442313</v>
       </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
         <v>3.169925001442313</v>
       </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>0</v>
-      </c>
       <c r="AC17" s="4">
         <v>0</v>
       </c>
@@ -4777,11 +4777,11 @@
         <v>0</v>
       </c>
       <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
         <v>6.3398500028846252</v>
       </c>
-      <c r="AH17" s="4">
-        <v>0</v>
-      </c>
       <c r="AI17" s="4">
         <v>0</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:AR17)</f>
         <v>15.849625007211564</v>
       </c>
     </row>
@@ -4915,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="AG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4">
         <v>4.4918530963296748</v>
       </c>
-      <c r="AH18" s="4">
-        <v>0</v>
-      </c>
       <c r="AI18" s="4">
         <v>0</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:AR18)</f>
         <v>4.4918530963296748</v>
       </c>
     </row>
@@ -4966,23 +4966,23 @@
         <v>0</v>
       </c>
       <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>4.0648429553847549</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
         <v>2.032421477692377</v>
       </c>
-      <c r="G19" s="4">
-        <v>4.0648429553847549</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
       <c r="J19" s="4">
         <v>0</v>
       </c>
@@ -4990,16 +4990,16 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>8.1296859107695099</v>
+        <v>0</v>
       </c>
       <c r="M19" s="4">
-        <v>2.032421477692377</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <v>2.032421477692377</v>
+        <v>0</v>
       </c>
       <c r="P19" s="4">
         <v>0</v>
@@ -5008,74 +5008,74 @@
         <v>4.0648429553847549</v>
       </c>
       <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>4.0648429553847549</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
         <v>2.032421477692377</v>
       </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
       <c r="V19" s="4">
-        <v>0</v>
+        <v>2.032421477692377</v>
       </c>
       <c r="W19" s="4">
         <v>0</v>
       </c>
       <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>8.1296859107695099</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="4">
         <v>2.032421477692377</v>
       </c>
-      <c r="Y19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="4">
-        <v>0</v>
-      </c>
       <c r="AL19" s="4">
         <v>0</v>
       </c>
       <c r="AM19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="4">
         <v>2.032421477692377</v>
       </c>
-      <c r="AN19" s="4">
-        <v>0</v>
-      </c>
       <c r="AO19" s="4">
         <v>0</v>
       </c>
@@ -5083,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="4">
-        <v>0</v>
+        <v>2.032421477692377</v>
       </c>
       <c r="AR19" s="4">
         <v>0</v>
       </c>
       <c r="AS19" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:AR19)</f>
         <v>32.518743643078039</v>
       </c>
     </row>
@@ -5107,128 +5107,128 @@
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>1.9068905956085189</v>
       </c>
       <c r="F20" s="4">
-        <v>3.813781191217037</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
         <v>11.44134357365111</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>1.9068905956085189</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>3.813781191217037</v>
       </c>
       <c r="R20" s="4">
         <v>1.9068905956085189</v>
       </c>
       <c r="S20" s="4">
-        <v>0</v>
+        <v>3.813781191217037</v>
       </c>
       <c r="T20" s="4">
-        <v>0</v>
+        <v>1.9068905956085189</v>
       </c>
       <c r="U20" s="4">
         <v>0</v>
       </c>
       <c r="V20" s="4">
-        <v>0</v>
+        <v>1.9068905956085189</v>
       </c>
       <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
         <v>1.9068905956085189</v>
       </c>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>0</v>
-      </c>
       <c r="AA20" s="4">
         <v>0</v>
       </c>
       <c r="AB20" s="4">
-        <v>0</v>
+        <v>1.9068905956085189</v>
       </c>
       <c r="AC20" s="4">
         <v>0</v>
       </c>
       <c r="AD20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>24.78957774291074</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>3.813781191217037</v>
+      </c>
+      <c r="AR20" s="4">
         <v>1.9068905956085189</v>
       </c>
-      <c r="AE20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="4">
-        <v>24.78957774291074</v>
-      </c>
-      <c r="AH20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="4">
-        <v>1.9068905956085189</v>
-      </c>
-      <c r="AM20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="4">
-        <v>1.9068905956085189</v>
-      </c>
-      <c r="AP20" s="4">
-        <v>1.9068905956085189</v>
-      </c>
-      <c r="AQ20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="4">
-        <v>0</v>
-      </c>
       <c r="AS20" s="9">
-        <f t="shared" si="0"/>
-        <v>57.206717868255552</v>
+        <f>SUM(B20:AR20)</f>
+        <v>57.206717868255559</v>
       </c>
     </row>
     <row r="21" spans="1:45" s="3" customFormat="1" ht="24.5" customHeight="1">
@@ -5260,80 +5260,80 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
         <v>2.9068905956085191</v>
       </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>2.9068905956085191</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
         <v>5.8137811912170374</v>
       </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
         <v>2.9068905956085191</v>
       </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
+      <c r="AE21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4">
         <v>2.9068905956085191</v>
       </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="4">
-        <v>2.9068905956085191</v>
-      </c>
-      <c r="AH21" s="4">
-        <v>0</v>
-      </c>
       <c r="AI21" s="4">
         <v>0</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:AR21)</f>
         <v>17.441343573651114</v>
       </c>
     </row>
@@ -5380,14 +5380,14 @@
         <v>0</v>
       </c>
       <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
         <v>18.791487219904489</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
       <c r="G22" s="4">
         <v>0</v>
       </c>
@@ -5395,107 +5395,107 @@
         <v>0</v>
       </c>
       <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
         <v>2.684498174272071</v>
       </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4">
         <v>13.422490871360351</v>
       </c>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>2.684498174272071</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="4">
         <v>34.898476265536921</v>
       </c>
-      <c r="P22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4">
-        <v>0</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4">
+      <c r="AO22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="4">
         <v>2.684498174272071</v>
       </c>
-      <c r="AA22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="4">
-        <v>2.684498174272071</v>
-      </c>
-      <c r="AI22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="4">
-        <v>0</v>
-      </c>
       <c r="AQ22" s="4">
         <v>0</v>
       </c>
@@ -5503,8 +5503,8 @@
         <v>0</v>
       </c>
       <c r="AS22" s="9">
-        <f t="shared" si="0"/>
-        <v>75.165948879617957</v>
+        <f>SUM(B22:AR22)</f>
+        <v>75.165948879617972</v>
       </c>
     </row>
     <row r="23" spans="1:45" s="3" customFormat="1" ht="24.5" customHeight="1">
@@ -5536,17 +5536,17 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
         <v>2.9068905956085191</v>
       </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
       <c r="N23" s="4">
         <v>0</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="4">
-        <v>0</v>
+        <v>2.9068905956085191</v>
       </c>
       <c r="Y23" s="4">
         <v>0</v>
@@ -5596,52 +5596,52 @@
         <v>0</v>
       </c>
       <c r="AD23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="4">
         <v>2.9068905956085191</v>
       </c>
-      <c r="AE23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="4">
+      <c r="AI23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="4">
         <v>2.9068905956085191</v>
       </c>
-      <c r="AH23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="4">
-        <v>2.9068905956085191</v>
-      </c>
-      <c r="AM23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="4">
-        <v>0</v>
-      </c>
       <c r="AS23" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:AR23)</f>
         <v>14.534452978042596</v>
       </c>
     </row>
@@ -5656,80 +5656,80 @@
         <v>0</v>
       </c>
       <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>2.9068905956085191</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
       <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
         <v>5.8137811912170374</v>
       </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>2.9068905956085191</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>2.9068905956085191</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4">
         <v>5.8137811912170374</v>
       </c>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>2.9068905956085191</v>
-      </c>
-      <c r="R24" s="4">
-        <v>2.9068905956085191</v>
-      </c>
-      <c r="S24" s="4">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4">
-        <v>0</v>
-      </c>
-      <c r="V24" s="4">
-        <v>0</v>
-      </c>
-      <c r="W24" s="4">
-        <v>0</v>
-      </c>
-      <c r="X24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="4">
-        <v>0</v>
-      </c>
       <c r="AC24" s="4">
         <v>0</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:AR24)</f>
         <v>20.348234169259634</v>
       </c>
     </row>
@@ -5833,14 +5833,14 @@
         <v>0</v>
       </c>
       <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="R25" s="4">
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <v>0</v>
-      </c>
       <c r="T25" s="4">
         <v>0</v>
       </c>
@@ -5881,11 +5881,11 @@
         <v>0</v>
       </c>
       <c r="AG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="AH25" s="4">
-        <v>0</v>
-      </c>
       <c r="AI25" s="4">
         <v>0</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:AR25)</f>
         <v>7.8137811912170383</v>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="4">
-        <v>3.9068905956085191</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -6049,13 +6049,13 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="4">
-        <v>0</v>
+        <v>3.9068905956085191</v>
       </c>
       <c r="AR26" s="4">
         <v>0</v>
       </c>
       <c r="AS26" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:AR26)</f>
         <v>7.8137811912170383</v>
       </c>
     </row>
@@ -6070,16 +6070,16 @@
         <v>0</v>
       </c>
       <c r="D27" s="4">
+        <v>0.90689059560851848</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
         <v>7.2551247648681478</v>
       </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.90689059560851848</v>
-      </c>
       <c r="G27" s="4">
-        <v>0.90689059560851848</v>
+        <v>0</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
@@ -6094,10 +6094,10 @@
         <v>0.90689059560851848</v>
       </c>
       <c r="L27" s="4">
-        <v>3.6275623824340739</v>
+        <v>0</v>
       </c>
       <c r="M27" s="4">
-        <v>0</v>
+        <v>0.90689059560851848</v>
       </c>
       <c r="N27" s="4">
         <v>0.90689059560851848</v>
@@ -6106,7 +6106,7 @@
         <v>0.90689059560851848</v>
       </c>
       <c r="P27" s="4">
-        <v>5.4413435736511104</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="4">
         <v>0.90689059560851848</v>
@@ -6124,52 +6124,52 @@
         <v>0.90689059560851848</v>
       </c>
       <c r="V27" s="4">
-        <v>0.90689059560851848</v>
+        <v>0</v>
       </c>
       <c r="W27" s="4">
         <v>0</v>
       </c>
       <c r="X27" s="4">
-        <v>0.90689059560851848</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="4">
         <v>0.90689059560851848</v>
       </c>
       <c r="Z27" s="4">
-        <v>0</v>
+        <v>0.90689059560851848</v>
       </c>
       <c r="AA27" s="4">
-        <v>0.90689059560851848</v>
+        <v>5.4413435736511104</v>
       </c>
       <c r="AB27" s="4">
-        <v>0</v>
+        <v>3.6275623824340739</v>
       </c>
       <c r="AC27" s="4">
-        <v>0</v>
+        <v>1.813781191217037</v>
       </c>
       <c r="AD27" s="4">
         <v>0.90689059560851848</v>
       </c>
       <c r="AE27" s="4">
-        <v>0.90689059560851848</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="4">
-        <v>0.90689059560851848</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="4">
         <v>3.6275623824340739</v>
-      </c>
-      <c r="AH27" s="4">
-        <v>0</v>
       </c>
       <c r="AI27" s="4">
         <v>0.90689059560851848</v>
       </c>
       <c r="AJ27" s="4">
-        <v>0</v>
+        <v>0.90689059560851848</v>
       </c>
       <c r="AK27" s="4">
-        <v>0</v>
+        <v>0.90689059560851848</v>
       </c>
       <c r="AL27" s="4">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0.90689059560851848</v>
       </c>
       <c r="AN27" s="4">
-        <v>1.813781191217037</v>
+        <v>0.90689059560851848</v>
       </c>
       <c r="AO27" s="4">
         <v>0</v>
@@ -6187,14 +6187,14 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="4">
-        <v>0</v>
+        <v>0.90689059560851848</v>
       </c>
       <c r="AR27" s="4">
         <v>0</v>
       </c>
       <c r="AS27" s="9">
-        <f t="shared" si="0"/>
-        <v>38.08940501555778</v>
+        <f>SUM(B27:AR27)</f>
+        <v>38.089405015557759</v>
       </c>
     </row>
     <row r="28" spans="1:45" s="3" customFormat="1" ht="24.5" customHeight="1">
@@ -6295,11 +6295,11 @@
         <v>0</v>
       </c>
       <c r="AG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="4">
         <v>4.4918530963296748</v>
       </c>
-      <c r="AH28" s="4">
-        <v>0</v>
-      </c>
       <c r="AI28" s="4">
         <v>0</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B28:AR28)</f>
         <v>4.4918530963296748</v>
       </c>
     </row>
@@ -6343,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="4">
-        <v>0</v>
+        <v>82.044702507778894</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>82.044702507778894</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -6433,11 +6433,11 @@
         <v>0</v>
       </c>
       <c r="AG29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="AH29" s="4">
-        <v>0</v>
-      </c>
       <c r="AI29" s="4">
         <v>0</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B29:AR29)</f>
         <v>85.95159310338741</v>
       </c>
     </row>
@@ -6508,56 +6508,56 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-      <c r="T30" s="4">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4">
-        <v>0</v>
-      </c>
-      <c r="V30" s="4">
-        <v>0</v>
-      </c>
-      <c r="W30" s="4">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="4">
-        <v>0</v>
-      </c>
       <c r="AC30" s="4">
         <v>0</v>
       </c>
@@ -6571,11 +6571,11 @@
         <v>0</v>
       </c>
       <c r="AG30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="AH30" s="4">
-        <v>0</v>
-      </c>
       <c r="AI30" s="4">
         <v>0</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B30:AR30)</f>
         <v>7.8137811912170383</v>
       </c>
     </row>
@@ -6646,56 +6646,56 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="4">
         <v>4.4918530963296748</v>
       </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4">
-        <v>0</v>
-      </c>
-      <c r="V31" s="4">
-        <v>0</v>
-      </c>
-      <c r="W31" s="4">
-        <v>0</v>
-      </c>
-      <c r="X31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="4">
-        <v>0</v>
-      </c>
       <c r="AC31" s="4">
         <v>0</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B31:AR31)</f>
         <v>4.4918530963296748</v>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>3.9068905956085191</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -6853,17 +6853,17 @@
         <v>0</v>
       </c>
       <c r="AI32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="AJ32" s="4">
-        <v>3.9068905956085191</v>
-      </c>
-      <c r="AK32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="4">
-        <v>0</v>
-      </c>
       <c r="AM32" s="4">
         <v>0</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:AR32)</f>
         <v>7.8137811912170383</v>
       </c>
     </row>
@@ -6892,7 +6892,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>0</v>
+        <v>3.9068905956085191</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="4">
-        <v>0</v>
+        <v>3.9068905956085191</v>
       </c>
       <c r="O33" s="4">
         <v>0</v>
@@ -6946,10 +6946,10 @@
         <v>0</v>
       </c>
       <c r="T33" s="4">
-        <v>3.9068905956085191</v>
+        <v>0</v>
       </c>
       <c r="U33" s="4">
-        <v>3.9068905956085191</v>
+        <v>0</v>
       </c>
       <c r="V33" s="4">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:AR33)</f>
         <v>7.8137811912170383</v>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>0</v>
+        <v>3.9068905956085191</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -7075,14 +7075,14 @@
         <v>0</v>
       </c>
       <c r="Q34" s="4">
+        <v>0</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="R34" s="4">
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
       <c r="T34" s="4">
         <v>0</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="AC34" s="4">
-        <v>3.9068905956085191</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="4">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B34:AR34)</f>
         <v>7.8137811912170383</v>
       </c>
     </row>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>0</v>
+        <v>7.8137811912170374</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -7261,13 +7261,13 @@
         <v>0</v>
       </c>
       <c r="AG35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="4">
         <v>3.9068905956085191</v>
       </c>
-      <c r="AH35" s="4">
-        <v>0</v>
-      </c>
       <c r="AI35" s="4">
-        <v>7.8137811912170374</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="4">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:AR35)</f>
         <v>11.720671786825557</v>
       </c>
     </row>
@@ -7305,181 +7305,181 @@
       <c r="A36" s="2"/>
       <c r="B36" s="10">
         <f>SUM(B2:B35)</f>
+        <v>7.3987436919381944</v>
+      </c>
+      <c r="C36" s="10">
+        <f>SUM(C2:C35)</f>
+        <v>106.48767418208662</v>
+      </c>
+      <c r="D36" s="10">
+        <f>SUM(D2:D35)</f>
+        <v>14.659983860126452</v>
+      </c>
+      <c r="E36" s="10">
+        <f>SUM(E2:E35)</f>
+        <v>1.9068905956085189</v>
+      </c>
+      <c r="F36" s="10">
+        <f>SUM(F2:F35)</f>
+        <v>66.806146960012626</v>
+      </c>
+      <c r="G36" s="10">
+        <f>SUM(G2:G35)</f>
+        <v>3.9068905956085191</v>
+      </c>
+      <c r="H36" s="10">
+        <f>SUM(H2:H35)</f>
+        <v>4.7548875021634691</v>
+      </c>
+      <c r="I36" s="10">
+        <f>SUM(I2:I35)</f>
+        <v>2.032421477692377</v>
+      </c>
+      <c r="J36" s="10">
+        <f>SUM(J2:J35)</f>
+        <v>0.90689059560851848</v>
+      </c>
+      <c r="K36" s="10">
+        <f>SUM(K2:K35)</f>
+        <v>0.90689059560851848</v>
+      </c>
+      <c r="L36" s="10">
+        <f>SUM(L2:L35)</f>
+        <v>1.5849625007211561</v>
+      </c>
+      <c r="M36" s="10">
+        <f>SUM(M2:M35)</f>
+        <v>9.8905967882678691</v>
+      </c>
+      <c r="N36" s="10">
+        <f>SUM(N2:N35)</f>
+        <v>4.8137811912170374</v>
+      </c>
+      <c r="O36" s="10">
+        <f>SUM(O2:O35)</f>
+        <v>11.601090171072883</v>
+      </c>
+      <c r="P36" s="10">
+        <f>SUM(P2:P35)</f>
+        <v>1.5849625007211561</v>
+      </c>
+      <c r="Q36" s="10">
+        <f>SUM(Q2:Q35)</f>
+        <v>78.178469338230343</v>
+      </c>
+      <c r="R36" s="10">
+        <f>SUM(R2:R35)</f>
+        <v>1.9068905956085189</v>
+      </c>
+      <c r="S36" s="10">
+        <f>SUM(S2:S35)</f>
+        <v>24.583002126086701</v>
+      </c>
+      <c r="T36" s="10">
+        <f>SUM(T2:T35)</f>
+        <v>1.9068905956085189</v>
+      </c>
+      <c r="U36" s="10">
+        <f>SUM(U2:U35)</f>
+        <v>2.9393120733008953</v>
+      </c>
+      <c r="V36" s="10">
+        <f>SUM(V2:V35)</f>
+        <v>13.24494636084761</v>
+      </c>
+      <c r="W36" s="10">
+        <f>SUM(W2:W35)</f>
+        <v>3.169925001442313</v>
+      </c>
+      <c r="X36" s="10">
+        <f>SUM(X2:X35)</f>
+        <v>5.5913887698805897</v>
+      </c>
+      <c r="Y36" s="10">
+        <f>SUM(Y2:Y35)</f>
+        <v>0.90689059560851848</v>
+      </c>
+      <c r="Z36" s="10">
+        <f>SUM(Z2:Z35)</f>
+        <v>5.720671786825557</v>
+      </c>
+      <c r="AA36" s="10">
+        <f>SUM(AA2:AA35)</f>
+        <v>7.7632716685384722</v>
+      </c>
+      <c r="AB36" s="10">
+        <f>SUM(AB2:AB35)</f>
+        <v>53.774713932316708</v>
+      </c>
+      <c r="AC36" s="10">
+        <f>SUM(AC2:AC35)</f>
+        <v>1.813781191217037</v>
+      </c>
+      <c r="AD36" s="10">
+        <f>SUM(AD2:AD35)</f>
+        <v>3.8137811912170374</v>
+      </c>
+      <c r="AE36" s="10">
+        <f>SUM(AE2:AE35)</f>
+        <v>3.4918530963296752</v>
+      </c>
+      <c r="AF36" s="10">
+        <f>SUM(AF2:AF35)</f>
+        <v>10.568668693380507</v>
+      </c>
+      <c r="AG36" s="10">
+        <f>SUM(AG2:AG35)</f>
+        <v>2.684498174272071</v>
+      </c>
+      <c r="AH36" s="10">
+        <f>SUM(AH2:AH35)</f>
+        <v>253.88607621637183</v>
+      </c>
+      <c r="AI36" s="10">
+        <f>SUM(AI2:AI35)</f>
+        <v>6.8462026689094149</v>
+      </c>
+      <c r="AJ36" s="10">
+        <f>SUM(AJ2:AJ35)</f>
+        <v>18.835858127899954</v>
+      </c>
+      <c r="AK36" s="10">
+        <f>SUM(AK2:AK35)</f>
+        <v>2.9393120733008953</v>
+      </c>
+      <c r="AL36" s="10">
+        <f>SUM(AL2:AL35)</f>
+        <v>29.924646366616862</v>
+      </c>
+      <c r="AM36" s="10">
+        <f>SUM(AM2:AM35)</f>
+        <v>5.2612401681882579</v>
+      </c>
+      <c r="AN36" s="10">
+        <f>SUM(AN2:AN35)</f>
+        <v>39.422750839558972</v>
+      </c>
+      <c r="AO36" s="10">
+        <f>SUM(AO2:AO35)</f>
         <v>32.883674585560556</v>
       </c>
-      <c r="C36" s="10">
-        <f t="shared" ref="C36:AR36" si="1">SUM(C2:C35)</f>
-        <v>4.7548875021634691</v>
-      </c>
-      <c r="D36" s="10">
-        <f t="shared" si="1"/>
-        <v>66.806146960012626</v>
-      </c>
-      <c r="E36" s="10">
-        <f t="shared" si="1"/>
-        <v>106.48767418208662</v>
-      </c>
-      <c r="F36" s="10">
-        <f t="shared" si="1"/>
+      <c r="AP36" s="10">
+        <f>SUM(AP2:AP35)</f>
+        <v>15.253166867652578</v>
+      </c>
+      <c r="AQ36" s="10">
+        <f>SUM(AQ2:AQ35)</f>
         <v>10.65998386012645</v>
       </c>
-      <c r="G36" s="10">
-        <f t="shared" si="1"/>
-        <v>78.178469338230343</v>
-      </c>
-      <c r="H36" s="10">
-        <f t="shared" si="1"/>
-        <v>10.568668693380507</v>
-      </c>
-      <c r="I36" s="10">
-        <f t="shared" si="1"/>
-        <v>15.253166867652578</v>
-      </c>
-      <c r="J36" s="10">
-        <f t="shared" si="1"/>
-        <v>9.8905967882678691</v>
-      </c>
-      <c r="K36" s="10">
-        <f t="shared" si="1"/>
-        <v>18.835858127899954</v>
-      </c>
-      <c r="L36" s="10">
-        <f t="shared" si="1"/>
-        <v>53.774713932316708</v>
-      </c>
-      <c r="M36" s="10">
-        <f t="shared" si="1"/>
-        <v>2.032421477692377</v>
-      </c>
-      <c r="N36" s="10">
-        <f t="shared" si="1"/>
-        <v>3.8137811912170374</v>
-      </c>
-      <c r="O36" s="10">
-        <f t="shared" si="1"/>
-        <v>39.422750839558972</v>
-      </c>
-      <c r="P36" s="10">
-        <f t="shared" si="1"/>
-        <v>7.7632716685384722</v>
-      </c>
-      <c r="Q36" s="10">
-        <f t="shared" si="1"/>
-        <v>24.583002126086701</v>
-      </c>
-      <c r="R36" s="10">
-        <f t="shared" si="1"/>
-        <v>13.24494636084761</v>
-      </c>
-      <c r="S36" s="10">
-        <f t="shared" si="1"/>
-        <v>5.2612401681882579</v>
-      </c>
-      <c r="T36" s="10">
-        <f t="shared" si="1"/>
-        <v>7.3987436919381944</v>
-      </c>
-      <c r="U36" s="10">
-        <f t="shared" si="1"/>
-        <v>4.8137811912170374</v>
-      </c>
-      <c r="V36" s="10">
-        <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
-      </c>
-      <c r="W36" s="10">
-        <f t="shared" si="1"/>
-        <v>1.9068905956085189</v>
-      </c>
-      <c r="X36" s="10">
-        <f t="shared" si="1"/>
-        <v>2.9393120733008953</v>
-      </c>
-      <c r="Y36" s="10">
-        <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
-      </c>
-      <c r="Z36" s="10">
-        <f t="shared" si="1"/>
-        <v>5.5913887698805897</v>
-      </c>
-      <c r="AA36" s="10">
-        <f t="shared" si="1"/>
-        <v>11.601090171072883</v>
-      </c>
-      <c r="AB36" s="10">
-        <f t="shared" si="1"/>
-        <v>3.4918530963296752</v>
-      </c>
-      <c r="AC36" s="10">
-        <f t="shared" si="1"/>
-        <v>3.9068905956085191</v>
-      </c>
-      <c r="AD36" s="10">
-        <f t="shared" si="1"/>
-        <v>5.720671786825557</v>
-      </c>
-      <c r="AE36" s="10">
-        <f t="shared" si="1"/>
-        <v>6.8462026689094149</v>
-      </c>
-      <c r="AF36" s="10">
-        <f t="shared" si="1"/>
-        <v>0.90689059560851848</v>
-      </c>
-      <c r="AG36" s="10">
-        <f t="shared" si="1"/>
-        <v>253.88607621637183</v>
-      </c>
-      <c r="AH36" s="10">
-        <f t="shared" si="1"/>
-        <v>2.684498174272071</v>
-      </c>
-      <c r="AI36" s="10">
-        <f t="shared" si="1"/>
-        <v>14.659983860126452</v>
-      </c>
-      <c r="AJ36" s="10">
-        <f t="shared" si="1"/>
-        <v>29.924646366616862</v>
-      </c>
-      <c r="AK36" s="10">
-        <f t="shared" si="1"/>
-        <v>3.169925001442313</v>
-      </c>
-      <c r="AL36" s="10">
-        <f t="shared" si="1"/>
+      <c r="AR36" s="10">
+        <f>SUM(AR2:AR35)</f>
         <v>4.8137811912170383</v>
-      </c>
-      <c r="AM36" s="10">
-        <f t="shared" si="1"/>
-        <v>2.9393120733008953</v>
-      </c>
-      <c r="AN36" s="10">
-        <f t="shared" si="1"/>
-        <v>1.813781191217037</v>
-      </c>
-      <c r="AO36" s="10">
-        <f t="shared" si="1"/>
-        <v>1.9068905956085189</v>
-      </c>
-      <c r="AP36" s="10">
-        <f t="shared" si="1"/>
-        <v>1.9068905956085189</v>
-      </c>
-      <c r="AQ36" s="10">
-        <f t="shared" si="1"/>
-        <v>1.5849625007211561</v>
-      </c>
-      <c r="AR36" s="10">
-        <f t="shared" si="1"/>
-        <v>1.5849625007211561</v>
       </c>
       <c r="AS36" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AR35">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:AR36">
+    <sortCondition ref="B1:AR1"/>
   </sortState>
   <conditionalFormatting sqref="B2:AR35">
     <cfRule type="colorScale" priority="11">

--- a/xl_data/otero-bfiaf-CENSORED.xlsx
+++ b/xl_data/otero-bfiaf-CENSORED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\damon\COFC\bad-author\xl_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28DD9AA-B5AC-4219-949D-4FC6160C74FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D718DD8A-D955-4D43-8FAB-BBA856960CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phpmyadmin" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,6 +477,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1301,39 +1308,39 @@
     <row r="15" spans="1:11" ht="25" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="10">
-        <f>SUM(B2:B14)</f>
+        <f t="shared" ref="B15:J15" si="1">SUM(B2:B14)</f>
         <v>0.51457317282975823</v>
       </c>
       <c r="C15" s="10">
-        <f>SUM(C2:C14)</f>
+        <f t="shared" si="1"/>
         <v>7.509503803151361</v>
       </c>
       <c r="D15" s="10">
-        <f>SUM(D2:D14)</f>
+        <f t="shared" si="1"/>
         <v>28.594432365401616</v>
       </c>
       <c r="E15" s="10">
-        <f>SUM(E2:E14)</f>
+        <f t="shared" si="1"/>
         <v>38.10381005801591</v>
       </c>
       <c r="F15" s="10">
-        <f>SUM(F2:F14)</f>
+        <f t="shared" si="1"/>
         <v>0.51457317282975823</v>
       </c>
       <c r="G15" s="10">
-        <f>SUM(G2:G14)</f>
+        <f t="shared" si="1"/>
         <v>1.8365012677171202</v>
       </c>
       <c r="H15" s="10">
-        <f>SUM(H2:H14)</f>
+        <f t="shared" si="1"/>
         <v>1.321928094887362</v>
       </c>
       <c r="I15" s="10">
-        <f>SUM(I2:I14)</f>
+        <f t="shared" si="1"/>
         <v>2.6438561897747248</v>
       </c>
       <c r="J15" s="10">
-        <f>SUM(J2:J14)</f>
+        <f t="shared" si="1"/>
         <v>2.3219280948873622</v>
       </c>
       <c r="K15" s="6"/>
@@ -1508,7 +1515,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2240,55 +2247,55 @@
     <row r="16" spans="1:15" ht="25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="10">
-        <f>SUM(B2:B15)</f>
+        <f t="shared" ref="B16:N16" si="1">SUM(B2:B15)</f>
         <v>36.938887025928743</v>
       </c>
       <c r="C16" s="10">
-        <f>SUM(C2:C15)</f>
+        <f t="shared" si="1"/>
         <v>7.3281994600348295</v>
       </c>
       <c r="D16" s="10">
-        <f>SUM(D2:D15)</f>
+        <f t="shared" si="1"/>
         <v>3.2927817492278457</v>
       </c>
       <c r="E16" s="10">
-        <f>SUM(E2:E15)</f>
+        <f t="shared" si="1"/>
         <v>0.48542682717024171</v>
       </c>
       <c r="F16" s="10">
-        <f>SUM(F2:F15)</f>
+        <f t="shared" si="1"/>
         <v>6.3688414445321762</v>
       </c>
       <c r="G16" s="10">
-        <f>SUM(G2:G15)</f>
+        <f t="shared" si="1"/>
         <v>3.6147098441152079</v>
       </c>
       <c r="H16" s="10">
-        <f>SUM(H2:H15)</f>
+        <f t="shared" si="1"/>
         <v>3.4447848426728962</v>
       </c>
       <c r="I16" s="10">
-        <f>SUM(I2:I15)</f>
+        <f t="shared" si="1"/>
         <v>6.6786729028471719</v>
       </c>
       <c r="J16" s="10">
-        <f>SUM(J2:J15)</f>
+        <f t="shared" si="1"/>
         <v>4.1001366712854495</v>
       </c>
       <c r="K16" s="10">
-        <f>SUM(K2:K15)</f>
+        <f t="shared" si="1"/>
         <v>18.270624063613941</v>
       </c>
       <c r="L16" s="10">
-        <f>SUM(L2:L15)</f>
+        <f t="shared" si="1"/>
         <v>0.48542682717024171</v>
       </c>
       <c r="M16" s="10">
-        <f>SUM(M2:M15)</f>
+        <f t="shared" si="1"/>
         <v>21.452413107301407</v>
       </c>
       <c r="N16" s="10">
-        <f>SUM(N2:N15)</f>
+        <f t="shared" si="1"/>
         <v>7.4277351335857436</v>
       </c>
       <c r="O16" s="6"/>
@@ -2464,8 +2471,8 @@
   </sheetPr>
   <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7167,133 +7174,133 @@
       <c r="A35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
+      <c r="B35" s="12">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
         <v>7.8137811912170374</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>0</v>
-      </c>
-      <c r="R35" s="4">
-        <v>0</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
-      <c r="T35" s="4">
-        <v>0</v>
-      </c>
-      <c r="U35" s="4">
-        <v>0</v>
-      </c>
-      <c r="V35" s="4">
-        <v>0</v>
-      </c>
-      <c r="W35" s="4">
-        <v>0</v>
-      </c>
-      <c r="X35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="4">
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12">
+        <v>0</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0</v>
+      </c>
+      <c r="O35" s="12">
+        <v>0</v>
+      </c>
+      <c r="P35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>0</v>
+      </c>
+      <c r="R35" s="12">
+        <v>0</v>
+      </c>
+      <c r="S35" s="12">
+        <v>0</v>
+      </c>
+      <c r="T35" s="12">
+        <v>0</v>
+      </c>
+      <c r="U35" s="12">
+        <v>0</v>
+      </c>
+      <c r="V35" s="12">
+        <v>0</v>
+      </c>
+      <c r="W35" s="12">
+        <v>0</v>
+      </c>
+      <c r="X35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="12">
         <v>3.9068905956085191</v>
       </c>
-      <c r="AI35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="4">
+      <c r="AI35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="12">
         <v>0</v>
       </c>
       <c r="AS35" s="9">
@@ -7302,7 +7309,7 @@
       </c>
     </row>
     <row r="36" spans="1:45" ht="37" customHeight="1">
-      <c r="A36" s="2"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="10">
         <f>SUM(B2:B35)</f>
         <v>7.3987436919381944</v>
@@ -7475,7 +7482,7 @@
         <f>SUM(AR2:AR35)</f>
         <v>4.8137811912170383</v>
       </c>
-      <c r="AS36" s="6"/>
+      <c r="AS36" s="14"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:AR36">
